--- a/pythonProject/ab.xlsx
+++ b/pythonProject/ab.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>resports</t>
+          <t>reposts</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,238 +478,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M-TP
-@sontungmtp777
+          <t>Donald J. Trump
+@realDonaldTrump
 ·
-Jun 22</t>
+22h</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-22T12:08:59.000Z</t>
+          <t>2024-10-26T19:15:12.000Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đoàn tàu [DLTTAD] đã chính thức khởi hành  
-Xin quý khách ổn định chỗ ngồi và tận hưởng trọn vẹn chuyến đi tại đây  https://youtu.be/FEmnnU-HhnQ 
-Chúc quý khách có một chuyến đi tốt đẹp và tràn đầy cảm xúc 
-#7MinuteStage #SonTungMTP</t>
+          <t>THANK YOU, MICHIGAN! Together, we will FIGHT, FIGHT, FIGHT, and VOTE, VOTE, VOTE. November 5th will be the most important day in the history of our Country! #VOTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>88673</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>5301</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>15924</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29368</t>
+          <t>8097997</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/GQrTIAAaIAEen2G?format=jpg&amp;name=small, https://pbs.twimg.com/media/GQrTIACaEAA9LLB?format=jpg&amp;name=360x360, https://pbs.twimg.com/media/GQrTIABbAAAzpQE?format=jpg&amp;name=small, https://pbs.twimg.com/media/GQrTIACagAA5TCb?format=jpg&amp;name=360x360</t>
+          <t>blob:https://x.com/cac40b1e-adbe-41e1-a077-370c48c8c36b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M-TP
-@sontungmtp777
+          <t>Donald J. Trump
+@realDonaldTrump
 ·
-Jun 20</t>
+13h</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-20T12:14:23.000Z</t>
+          <t>2024-10-27T04:01:52.000Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Xin chào quý khách, chuyến tàu mang số hiệu #DLTTAD sẽ khởi hành trong 2 ngày nữa 
-Xin quý khách lưu lại thông tin, chuẩn bị mọi hành trang để có một trải nghiệm tuyệt vời cùng chúng tôi. Chúc quý khách có một chuyến đi tốt đẹp!
-#SonTungMTP #7MinuteStage</t>
+          <t>“Kamala Backed Biden on Everything”</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>85572</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>20657</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26447</t>
+          <t>7832227</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/GQhBLXSagAAdadm?format=jpg&amp;name=small</t>
+          <t>blob:https://x.com/17ae291a-4040-481f-9677-90da9481a1c3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M-TP
-@sontungmtp777
+          <t>Donald J. Trump
+@realDonaldTrump
 ·
-Jun 18</t>
+18h</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-06-18T04:39:22.000Z</t>
+          <t>2024-10-26T23:54:02.000Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Còn gì để nóii nữaaaaa … Quá là tuyệt vời rồi … Tùng cảm ơn mọi người nhiều lắmmmmmmmm 
-#DLTTAD #sontungmtp #mtpentertainment</t>
+          <t>THANK YOU—STATE COLLEGE, PENNSYLVANIA. TOGETHER, WE ARE GOING TO MAKE AMERICA GREAT AGAIN!!!</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>86090</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2562</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>13469</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20197</t>
+          <t>5480949</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/GQVF2wuakAAav5-?format=jpg&amp;name=small</t>
+          <t>blob:https://x.com/34e8e5c5-e429-443d-abb5-def288e6ba69</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M-TP
-@sontungmtp777
+          <t>Donald J. Trump
+@realDonaldTrump
 ·
-Jun 14</t>
+20h</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-14T12:53:33.000Z</t>
+          <t>2024-10-26T21:38:16.000Z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tình hình làaaaaaaa … KHÔNG CÒN GÌ ĐỂ NÓI CẢ …
-22M on YOUTUBE REALTIME
-5M on SPOTIFY REALTIME
-Và vẫn là MV được xem nhiều nhất trong 24h qua ở cả CHÂU Á và TOÀN CẦU !
-Vẫn là PERFECT ALL KILL ..</t>
+          <t>AN HONOR, THANK YOU!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>226117</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>38540</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14608</t>
+          <t>24554628</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/GQCQhIxaQAAJ6-V?format=jpg&amp;name=small</t>
+          <t>blob:https://x.com/1c764407-3b90-4e24-810f-6fb2f7e0e358</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M-TP
-@sontungmtp777
+          <t>Donald J. Trump
+@realDonaldTrump
 ·
-Jun 13</t>
+Oct 26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-06-13T16:27:23.000Z</t>
+          <t>2024-10-26T05:26:47.000Z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tình hình làaaa … DLTTAD đã đạt 20.000.000 views … 
-Cảm ơn mọi người thật nhiềuuuuu 
-Đừng quên tiếp tục lan toả năng lượng vô cùng tích cực này nhé mọi người ơiiiii
- https://youtu.be/abPmZCZZrFA?si=vGCaPAeKRXMnBOul… </t>
+          <t>This election is a choice between whether we will have four more years of incompetence and failure—or whether we will begin the four greatest years in the history of our Country.
+THANK YOU, MICHIGAN!</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>170848</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8162</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>30999</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14518</t>
+          <t>8037428</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/GP939M9aUAAWMA1?format=jpg&amp;name=small</t>
+          <t>blob:https://x.com/2e7f0b47-5cdf-47b2-8628-b3add8cb2dd9</t>
         </is>
       </c>
     </row>

--- a/pythonProject/ab.xlsx
+++ b/pythonProject/ab.xlsx
@@ -478,228 +478,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Donald J. Trump
-@realDonaldTrump
+          <t>University of Oxford
+@UniofOxford
 ·
-22h</t>
+Oct 16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-26T19:15:12.000Z</t>
+          <t>2024-10-16T09:14:37.000Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>THANK YOU, MICHIGAN! Together, we will FIGHT, FIGHT, FIGHT, and VOTE, VOTE, VOTE. November 5th will be the most important day in the history of our Country! #VOTE</t>
+          <t xml:space="preserve">Oxford University can today confirm that 38 candidates have successfully submitted applications for the role of Chancellor.
+Read more here </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88673</t>
+          <t>860</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5301</t>
+          <t>593</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15924</t>
+          <t>514</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8097997</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>blob:https://x.com/cac40b1e-adbe-41e1-a077-370c48c8c36b</t>
-        </is>
-      </c>
+          <t>895991</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Donald J. Trump
-@realDonaldTrump
+          <t>The Cultural Programme
+@oxfculturalprog
 ·
-13h</t>
+1h</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-10-27T04:01:52.000Z</t>
+          <t>2024-10-28T08:47:35.000Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“Kamala Backed Biden on Everything”</t>
+          <t xml:space="preserve">On Friday, EVOLVER made its UK debut at a special pop-up space in Little Clarendon Street, Oxford. 
+Available til 14 Nov only. Tickets from £10 with student, U25s &amp; U18s discounts.
+Book tickets now: https://oxfordculturalprogramme.org.uk/event/evolver/
+@marshmallowlf
+ #virtualreality </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85572</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4169</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20657</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7832227</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>blob:https://x.com/17ae291a-4040-481f-9677-90da9481a1c3</t>
-        </is>
-      </c>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Donald J. Trump
-@realDonaldTrump
+          <t>Green Templeton College
+@greentempleton
 ·
-18h</t>
+Oct 27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-26T23:54:02.000Z</t>
+          <t>2024-10-27T09:59:18.000Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>THANK YOU—STATE COLLEGE, PENNSYLVANIA. TOGETHER, WE ARE GOING TO MAKE AMERICA GREAT AGAIN!!!</t>
+          <t>It’s national black cat day!  
+To celebrate here are some pictures of our resident feline friend Vincent, who adopted the college as his home in 2020.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86090</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13469</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5480949</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>blob:https://x.com/34e8e5c5-e429-443d-abb5-def288e6ba69</t>
-        </is>
-      </c>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Donald J. Trump
-@realDonaldTrump
+          <t>University of Oxford
+@UniofOxford
 ·
-20h</t>
+14h</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-10-26T21:38:16.000Z</t>
+          <t>2024-10-27T19:00:11.000Z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AN HONOR, THANK YOU!</t>
+          <t>Nighttime view of the Bridge of Sighs 
+ Instagram | EstherJohnsonPhotography (October, 2022)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>226117</t>
+          <t>859</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>144</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24554628</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>blob:https://x.com/1c764407-3b90-4e24-810f-6fb2f7e0e358</t>
-        </is>
-      </c>
+          <t>25849</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Donald J. Trump
-@realDonaldTrump
+          <t>University of Oxford
+@UniofOxford
 ·
 Oct 26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-10-26T05:26:47.000Z</t>
+          <t>2024-10-26T08:45:05.000Z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>This election is a choice between whether we will have four more years of incompetence and failure—or whether we will begin the four greatest years in the history of our Country.
-THANK YOU, MICHIGAN!</t>
+          <t>'Users should know that disaster databases may fail to capture the full chain of disaster impacts.'
+@OurWorldInData
+ explore whether the number of natural disasters is increasing  https://ourworldindata.org/disaster-database-limitations…</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>170848</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8162</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30999</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8037428</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>blob:https://x.com/2e7f0b47-5cdf-47b2-8628-b3add8cb2dd9</t>
-        </is>
-      </c>
+          <t>9511</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
